--- a/biology/Zoologie/Campbellodus/Campbellodus.xlsx
+++ b/biology/Zoologie/Campbellodus/Campbellodus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campbellodus decipiens
 Campbellodus est un genre éteint de poissons de placodermes ptyctodontes, qui vivait il y a environ 380 millions d'années au Dévonien supérieur.
 Une seule espèce est rattachée au genre, Campbellodus decipiens, dont les restes fossiles ont été trouvés préservés dans une forme tridimensionnelle parfaite dans la formation de Gogo d'Australie occidentale.
-À l'origine, elle a été décrite à partir de grandes plaques dentaires et d'os isolés du toit du crâne par Roger S. Miles (d) et Gavin C. Young (d) (1977). John A. Long (1995) a restauré le poisson complet à partir du nouveau matériel trouvé dans la formation de Gogo au milieu des années 1980, et décrit par Long (1997)[1].
+À l'origine, elle a été décrite à partir de grandes plaques dentaires et d'os isolés du toit du crâne par Roger S. Miles (d) et Gavin C. Young (d) (1977). John A. Long (1995) a restauré le poisson complet à partir du nouveau matériel trouvé dans la formation de Gogo au milieu des années 1980, et décrit par Long (1997).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Campbellodus a des plaques spinales très courtes, et il est inhabituel d'avoir une épine dorsale élevée formée par trois plaques médianes dorsales. Les plaques dentaires sont très robustes et la plaque supérieure a une haute colonne vertébrale antérieure[réf. nécessaire].
 </t>
